--- a/Mapa/municipios_coord.xlsx
+++ b/Mapa/municipios_coord.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iteso01-my.sharepoint.com/personal/if714983_iteso_mx/Documents/ITESO/8avo semestre/PAP/ExelPitss_Equipo4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iteso01-my.sharepoint.com/personal/if714983_iteso_mx/Documents/ITESO/8avo semestre/PAP/ExelPitss_Equipo4/Mapa/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="172" documentId="11_5FAC807A4221F977B470774461611111B33AAB06" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7BFEBEC6-5D1C-4B01-950B-1C88BD26D5BD}"/>
+  <xr:revisionPtr revIDLastSave="174" documentId="11_5FAC807A4221F977B470774461611111B33AAB06" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{CE1C82BF-F487-4B10-8A93-C08EEB56B55A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10276,19 +10276,19 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <top style="thin">
           <color indexed="64"/>
         </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -10340,7 +10340,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2913B01E-6099-401C-A51B-85D19D60D1D4}" name="Tabla1" displayName="Tabla1" ref="A1:D2464" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="4" tableBorderDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2913B01E-6099-401C-A51B-85D19D60D1D4}" name="Tabla1" displayName="Tabla1" ref="A1:D2464" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5" tableBorderDxfId="4">
   <autoFilter ref="A1:D2464" xr:uid="{817FD9BE-92B8-4E16-A0AD-7977334251BF}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{5E9E1FCB-F1A1-4EAF-9BB1-F4859C3AC740}" name="CIUDAD" dataDxfId="3"/>
@@ -10617,8 +10617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D2464"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1453" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E1466" sqref="E1466"/>
+    <sheetView tabSelected="1" topLeftCell="A330" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G347" sqref="G347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15439,8 +15439,8 @@
       <c r="C344" s="2">
         <v>21.116667</v>
       </c>
-      <c r="D344" s="2">
-        <v>101.666667</v>
+      <c r="D344" s="14">
+        <v>-101.666667</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.25">
